--- a/Logs/Conescapan/cv2/vuelta2corre.xlsx
+++ b/Logs/Conescapan/cv2/vuelta2corre.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190FE8BB-CB07-474B-8976-890669B343B5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF107D21-80DE-4A39-8DFD-1ECDBB690637}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1247,8 +1247,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2036,8 +2037,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3467,12 +3469,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="6E747A">
+                      <a:alpha val="43000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -3498,12 +3506,18 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -3787,6 +3801,271 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>corre</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'reg3'!$C$1:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>9.0231846503900002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0231936186899997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0232014971699996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0232098034699995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0232181097600002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0232267470600007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0232357153499994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0232434970300002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0232509477100002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0232587293899993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0232676976799997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0232766659700001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0232856342600005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0232935127499996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.02330248104</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0233122081400001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0233216042399995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0233310003400007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0233411552499998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0233496957299995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0233586640300008</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.02336848793</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.0233778840299994</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0233853347099995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0233935441999993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.02339667623</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.0234017536900009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.0234071621399998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.0234132325799994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.0234159368100002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.0234163646199992</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.0234197308400006</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.0234208206400002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'reg3'!$D$1:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>-79.531820511399999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-79.531815455100002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-79.5318110133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-79.5318063303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-79.5318016473</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-79.531796777599993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-79.531791721399998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-79.531787334200004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-79.531783133499999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-79.531778746300006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-79.531773690099996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-79.531768633799999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-79.531763577600003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-79.531759135800002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-79.531754079500004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-79.531748595500005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-79.531743297999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-79.531738000600001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-79.531732275400003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-79.531727460300004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-79.531722404099995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-79.531716865500002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-79.531711568000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-79.531707367400003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-79.531702738999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-79.531700973100001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-79.531698110500002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-79.531695061299999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-79.531691638799998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-79.531690114200003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-79.531689873000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-79.531687975200001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-79.531687360800007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B04E-4300-945F-45C272483679}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3826,8 +4105,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3836,12 +4116,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="6E747A">
+                      <a:alpha val="43000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -3897,12 +4183,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="6E747A">
+                      <a:alpha val="43000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -3944,6 +4236,1172 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="0" cap="none" spc="0">
+          <a:ln w="0"/>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:effectLst>
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="6E747A">
+                <a:alpha val="43000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-PA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PA"/>
+              <a:t>DISTANCIA PUNTO A RECTA REG3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'reg3'!$E$1:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC5F-45FA-8209-78A4F3669058}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>REG1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'reg3'!$I$1:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'reg3'!$F$1:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC5F-45FA-8209-78A4F3669058}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>REG2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'reg3'!$I$1:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'reg3'!$G$1:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BC5F-45FA-8209-78A4F3669058}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>REG3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'reg3'!$I$1:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'reg3'!$H$1:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BC5F-45FA-8209-78A4F3669058}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="165633919"/>
+        <c:axId val="2136536831"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="165633919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2136536831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2136536831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="165633919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -6903,8 +8361,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -9282,8 +10741,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -11029,6 +12489,46 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13514,6 +15014,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -18110,16 +20126,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>204787</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>204787</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18139,6 +20155,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8468E62-9723-4BA5-A6DD-E1D7BD7B19D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18412,7 +20464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B154" sqref="A121:B154"/>
     </sheetView>
   </sheetViews>
@@ -23127,7 +25179,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I33"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
